--- a/data/georgia_census/qvemo-qartli/gardabani/education_graduates.xlsx
+++ b/data/georgia_census/qvemo-qartli/gardabani/education_graduates.xlsx
@@ -1846,13 +1846,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C195E18C-BC1F-4DDC-99F1-03965B10E664}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8845AF6B-2B56-4D9E-824C-4CECAFA3A6C7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EF3C1A-C499-4E05-A445-6C510327B1E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A153648-B317-4520-8707-E205B234FA26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1872498B-D165-4B47-9E56-D7E838E19B56}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F254E57-B8DB-4877-BAF9-575D00E02824}"/>
 </file>